--- a/tsungresult/cache.xlsx
+++ b/tsungresult/cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\CS290 Ruby\tsungtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tsungtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
   <si>
     <t>Main Statistics</t>
   </si>
@@ -564,6 +564,18 @@
   </si>
   <si>
     <t>2.44 / sec</t>
+  </si>
+  <si>
+    <t>0.9 / sec</t>
+  </si>
+  <si>
+    <t>0.39 / sec</t>
+  </si>
+  <si>
+    <t>72.9 / sec</t>
+  </si>
+  <si>
+    <t>38.05 / sec</t>
   </si>
 </sst>
 </file>
@@ -2049,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2411,6 +2423,34 @@
         <v>516</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="6">
+        <v>500</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>503</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1522</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tsungresult/cache.xlsx
+++ b/tsungresult/cache.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="178">
   <si>
     <t>Main Statistics</t>
   </si>
@@ -446,136 +446,121 @@
     <t>11.99 / sec</t>
   </si>
   <si>
-    <t>1.93 msec</t>
-  </si>
-  <si>
-    <t>1.36 msec</t>
-  </si>
-  <si>
     <t>16.7 / sec</t>
   </si>
   <si>
-    <t>4.93 / sec</t>
-  </si>
-  <si>
-    <t>1.57 msec</t>
-  </si>
-  <si>
-    <t>3.64 sec</t>
-  </si>
-  <si>
-    <t>48.74 msec</t>
-  </si>
-  <si>
-    <t>97.6 / sec</t>
-  </si>
-  <si>
-    <t>24.32 / sec</t>
-  </si>
-  <si>
-    <t>1.72 sec</t>
-  </si>
-  <si>
-    <t>3.47 sec</t>
-  </si>
-  <si>
-    <t>106.6 / sec</t>
-  </si>
-  <si>
-    <t>26.70 / sec</t>
-  </si>
-  <si>
-    <t>1.57 sec</t>
-  </si>
-  <si>
-    <t>25.89 sec</t>
-  </si>
-  <si>
-    <t>6.55 sec</t>
-  </si>
-  <si>
-    <t>14.5 / sec</t>
-  </si>
-  <si>
-    <t>3.71 / sec</t>
-  </si>
-  <si>
-    <t>16.18 sec</t>
-  </si>
-  <si>
-    <t>2.90 Mbits/sec</t>
-  </si>
-  <si>
-    <t>29.95 MB</t>
-  </si>
-  <si>
-    <t>538.59 Kbits/sec</t>
-  </si>
-  <si>
-    <t>3.98 MB</t>
-  </si>
-  <si>
     <t>cpu:os_mon@tsung_controller@ip-172-30-3-15</t>
   </si>
   <si>
     <t>freemem:os_mon@tsung_controller@ip-172-30-3-15</t>
   </si>
   <si>
-    <t>3168.27 MB</t>
-  </si>
-  <si>
-    <t>3119.54 MB</t>
-  </si>
-  <si>
     <t>load:os_mon@tsung_controller@ip-172-30-3-15</t>
   </si>
   <si>
     <t>recvpackets:os_mon@tsung_controller@ip-172-30-3-15</t>
   </si>
   <si>
-    <t>4997.00 / sec</t>
-  </si>
-  <si>
-    <t>316.00 / sec</t>
-  </si>
-  <si>
     <t>sentpackets:os_mon@tsung_controller@ip-172-30-3-15</t>
   </si>
   <si>
-    <t>4303.00 / sec</t>
-  </si>
-  <si>
-    <t>269.00 / sec</t>
-  </si>
-  <si>
-    <t>25.5 / sec</t>
-  </si>
-  <si>
-    <t>10.28 / sec</t>
-  </si>
-  <si>
-    <t>19.1 / sec</t>
-  </si>
-  <si>
-    <t>6.35 / sec</t>
-  </si>
-  <si>
-    <t>5.6 / sec</t>
-  </si>
-  <si>
-    <t>2.44 / sec</t>
-  </si>
-  <si>
-    <t>0.9 / sec</t>
-  </si>
-  <si>
-    <t>0.39 / sec</t>
-  </si>
-  <si>
-    <t>72.9 / sec</t>
-  </si>
-  <si>
-    <t>38.05 / sec</t>
+    <t>3.12 msec</t>
+  </si>
+  <si>
+    <t>1.28 msec</t>
+  </si>
+  <si>
+    <t>3.80 / sec</t>
+  </si>
+  <si>
+    <t>1.52 msec</t>
+  </si>
+  <si>
+    <t>9.21 sec</t>
+  </si>
+  <si>
+    <t>92.63 msec</t>
+  </si>
+  <si>
+    <t>95.7 / sec</t>
+  </si>
+  <si>
+    <t>21.10 / sec</t>
+  </si>
+  <si>
+    <t>3.33 sec</t>
+  </si>
+  <si>
+    <t>8.34 sec</t>
+  </si>
+  <si>
+    <t>90.66 msec</t>
+  </si>
+  <si>
+    <t>23.24 / sec</t>
+  </si>
+  <si>
+    <t>3.04 sec</t>
+  </si>
+  <si>
+    <t>57.09 sec</t>
+  </si>
+  <si>
+    <t>7.74 sec</t>
+  </si>
+  <si>
+    <t>15.4 / sec</t>
+  </si>
+  <si>
+    <t>3.76 / sec</t>
+  </si>
+  <si>
+    <t>27.15 sec</t>
+  </si>
+  <si>
+    <t>2.28 Mbits/sec</t>
+  </si>
+  <si>
+    <t>42.69 MB</t>
+  </si>
+  <si>
+    <t>521.15 Kbits/sec</t>
+  </si>
+  <si>
+    <t>4.42 MB</t>
+  </si>
+  <si>
+    <t>3168.80 MB</t>
+  </si>
+  <si>
+    <t>3120.57 MB</t>
+  </si>
+  <si>
+    <t>4076.00 / sec</t>
+  </si>
+  <si>
+    <t>190.00 / sec</t>
+  </si>
+  <si>
+    <t>4194.00 / sec</t>
+  </si>
+  <si>
+    <t>154.00 / sec</t>
+  </si>
+  <si>
+    <t>7.69 / sec</t>
+  </si>
+  <si>
+    <t>18.3 / sec</t>
+  </si>
+  <si>
+    <t>7.01 / sec</t>
+  </si>
+  <si>
+    <t>82.5 / sec</t>
+  </si>
+  <si>
+    <t>19.92 / sec</t>
   </si>
 </sst>
 </file>
@@ -2063,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2109,22 +2094,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G3">
-        <v>1020</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2132,22 +2117,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G4">
-        <v>4582</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2155,22 +2140,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G5">
-        <v>5053</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2178,22 +2163,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G6">
-        <v>646</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -2218,10 +2203,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2229,10 +2214,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -2254,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="5">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2262,7 +2247,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="6">
-        <v>780</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2278,7 +2263,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="6">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2286,7 +2271,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="5">
-        <v>1046</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -2308,10 +2293,10 @@
     </row>
     <row r="23" spans="1:4" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B23" s="7">
-        <v>0.16370000000000001</v>
+        <v>0.1452</v>
       </c>
       <c r="C23" s="7">
         <v>1.5800000000000002E-2</v>
@@ -2319,40 +2304,40 @@
     </row>
     <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="C25" s="5">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>171</v>
@@ -2386,13 +2371,13 @@
         <v>200</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="D31" s="5">
-        <v>2176</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2400,56 +2385,40 @@
         <v>302</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="D32" s="6">
-        <v>1341</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
-        <v>404</v>
+        <v>503</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="D33" s="5">
-        <v>516</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="6">
-        <v>500</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="6">
-        <v>81</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5">
-        <v>503</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1522</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
